--- a/src/main/resources/outputs_comp/f3_out_out.xlsx
+++ b/src/main/resources/outputs_comp/f3_out_out.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuvus\Projects\tiny_generator\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuvus\Projects\tinyGPDataGenerator\src\main\resources\outputs_comp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2882070-FA50-492E-8CC1-583A36FE9B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3F6375-30AF-4F2E-A6B1-8C160FBEFE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -952,6 +952,890 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet!$A$1:$A$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>2831.6053333927321</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>605.00554246324612</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>280.97384228352138</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>208.43521626112101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>189.929111775682</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>134.84025419625999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>153.06420775610579</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>234.27522188312551</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>184.58633190335081</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>252.96862063546109</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>260.53250096475222</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>263.48157939318548</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>258.29741692730948</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>185.13641933836811</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>126.8053911971417</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>105.39264667008651</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>66.91679007856446</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>39.407876681357799</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>29.650437351647369</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37.511228545434761</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35.822285093854063</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>31.65720860834087</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>38.941225903362252</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>325.86493256830738</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27.48054307769878</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27.532361442408749</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.203590499406769</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>21.99387449697095</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>23.99786525278294</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43.373356005632758</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43.68237813524425</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>18.194234049283001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>14.130119592473971</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16.093753423596421</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>293.42257151898548</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>52.835458327015942</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14.387506220054011</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12.38273631047432</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>11.45805843656184</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>12.003958984086459</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>16.099265904150979</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>27.34230410048816</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>34.261575207738723</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42.347256782047481</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14.8733680107906</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>40.07780036054799</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>12.61914715931392</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>15.514864635171429</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>22.126981687379139</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>14.695753713772531</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>11.88928573804357</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>37.798032888362037</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9.4097764325948532</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>10.44498004046919</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>11.78852677474074</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>10.329454758591829</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9.960333253570159</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>22.95643574748593</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>22.532376143619341</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>12.126205587943399</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9.7926927352547022</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>10.804515287010121</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>48.77117646838164</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>16.979439806460078</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>10.236022669475201</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>12.61351539924715</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>16.159795250495431</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>9.9647301311547505</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>11.819485683779201</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>11.729044571465611</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>9.857409423058952</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>11.77078075794987</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>11.893356834764861</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>11.61704673465584</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>11.242810074830491</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>9.7793930076353881</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>10.079248306812829</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>8.6243943198016702</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.3367669834616374</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>12.894062494234319</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>21.342844170384929</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>19.538026920043912</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>21.480305066788681</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.8889605474598508</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>10.81082300437779</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>11.06029384168337</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>13.65270215581366</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>9.8803475653631487</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>12.213695616426561</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9.7563104926236175</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9.0883136740453558</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>8.1746782980809343</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>8.5998934752263718</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>19.340731865772781</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.6900986984642312</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.4029785476639614</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>14.601053888561941</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>10.60935818494624</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>10.64890798859796</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.3804723456778536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B8CC-4419-A59B-AB78DC7888D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet!$B$1:$B$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>14.936997350793529</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.64959903473456</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.70431626623246</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.70431626623246</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1386038379718713</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1386038379718713</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.1386038379718713</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1386038379718713</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.1386038379718713</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.1386038379718713</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.32851017074753708</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.32851017074753708</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.32851017074753708</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.32851017074753708</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.32851017074753708</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.32851017074753708</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.32851017074753708</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.32851017074753708</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.32851017074753708</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.32726734930475199</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.27754780113105781</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.1364722286675018</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.1364722286675018</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.1073853527084415</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.9598804153448092E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.6744234061936584E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.7358509165023917E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.7299248423768965E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.729910845199281E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.1375569445817896E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.1310264959732889E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.1310264959732889E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.3946459532787506E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.3627569017113458E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.8938378109730613E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.8938378109730613E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.8936916945193013E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.7437049706857243E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.7437049706857243E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.3794808738762731E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.3794808738762731E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.3774392649784869E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.3120312163720679E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.2664094298587733E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.0665618779436337E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.0376202979438831E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.9681045594310698E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.8088934676172937E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.751520227353144E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.7027458766756111E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.9772465838510421E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.9772465838510421E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.3451037694472198E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.3451037694472198E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.3173179900288022E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.3173179900288022E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.2684070124978759E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.0499878326544511E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.043621292727024E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.8847728258034389E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.7058202739320591E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.6904219400100252E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.6904039972202459E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.690401228002981E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.6079770110612351E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.570212049591554E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.4713554401332952E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.4713554401332952E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.4489403293182149E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.4489403293182149E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.4057318868719011E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.3220648285641621E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.320862181214528E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.2837217261256291E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.2806537702839611E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.083485941846137E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.083485941846137E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.0824022631085608E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.0824022631085608E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.0813279837191251E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.0639700954814381E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.0565912889719078E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.0110985356338571E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.986859543486803E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.986859543486803E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.9823821752485801E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.8846254379085738E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.883914423859236E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.7894718126190659E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.7855474266670852E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.779838958343136E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.779838958343136E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.7489066305096761E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.7467826192113661E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.7330220042354488E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.7144217529866852E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.701855236275486E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.6992583584997958E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.6482245112962191E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.64661430866558E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B8CC-4419-A59B-AB78DC7888D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="448934928"/>
+        <c:axId val="441992704"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="448934928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441992704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="441992704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="300"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="448934928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -992,7 +1876,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1541,6 +2981,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D2301A8-A314-466F-9B6A-B096A1A942ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1836,8 +3314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/outputs_comp/f3_out_out.xlsx
+++ b/src/main/resources/outputs_comp/f3_out_out.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuvus\Projects\tinyGPDataGenerator\src\main\resources\outputs_comp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3F6375-30AF-4F2E-A6B1-8C160FBEFE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51023EE7-79DE-4660-9593-0D31690C6237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1836,6 +1836,954 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>f(x) = 2 * ln(x+1)</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Avg fit</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet!$A$1:$A$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>2831.6053333927321</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>605.00554246324612</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>280.97384228352138</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>208.43521626112101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>189.929111775682</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>134.84025419625999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>153.06420775610579</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>234.27522188312551</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>184.58633190335081</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>252.96862063546109</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>260.53250096475222</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>263.48157939318548</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>258.29741692730948</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>185.13641933836811</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>126.8053911971417</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>105.39264667008651</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>66.91679007856446</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>39.407876681357799</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>29.650437351647369</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37.511228545434761</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35.822285093854063</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>31.65720860834087</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>38.941225903362252</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>325.86493256830738</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27.48054307769878</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27.532361442408749</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.203590499406769</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>21.99387449697095</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>23.99786525278294</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43.373356005632758</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43.68237813524425</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>18.194234049283001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>14.130119592473971</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16.093753423596421</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>293.42257151898548</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>52.835458327015942</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14.387506220054011</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12.38273631047432</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>11.45805843656184</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>12.003958984086459</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>16.099265904150979</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>27.34230410048816</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>34.261575207738723</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42.347256782047481</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14.8733680107906</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>40.07780036054799</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>12.61914715931392</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>15.514864635171429</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>22.126981687379139</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>14.695753713772531</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>11.88928573804357</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>37.798032888362037</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9.4097764325948532</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>10.44498004046919</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>11.78852677474074</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>10.329454758591829</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9.960333253570159</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>22.95643574748593</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>22.532376143619341</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>12.126205587943399</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9.7926927352547022</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>10.804515287010121</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>48.77117646838164</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>16.979439806460078</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>10.236022669475201</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>12.61351539924715</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>16.159795250495431</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>9.9647301311547505</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>11.819485683779201</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>11.729044571465611</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>9.857409423058952</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>11.77078075794987</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>11.893356834764861</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>11.61704673465584</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>11.242810074830491</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>9.7793930076353881</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>10.079248306812829</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>8.6243943198016702</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.3367669834616374</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>12.894062494234319</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>21.342844170384929</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>19.538026920043912</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>21.480305066788681</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.8889605474598508</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>10.81082300437779</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>11.06029384168337</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>13.65270215581366</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>9.8803475653631487</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>12.213695616426561</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9.7563104926236175</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9.0883136740453558</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>8.1746782980809343</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>8.5998934752263718</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>19.340731865772781</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.6900986984642312</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.4029785476639614</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>14.601053888561941</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>10.60935818494624</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>10.64890798859796</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.3804723456778536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9F44-4E88-9D91-B9D380B45E5F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Best fit</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet!$B$1:$B$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>14.936997350793529</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.64959903473456</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.70431626623246</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.70431626623246</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1386038379718713</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1386038379718713</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.1386038379718713</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1386038379718713</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.1386038379718713</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.1386038379718713</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.32851017074753708</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.32851017074753708</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.32851017074753708</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.32851017074753708</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.32851017074753708</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.32851017074753708</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.32851017074753708</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.32851017074753708</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.32851017074753708</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.32726734930475199</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.27754780113105781</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.1364722286675018</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.1364722286675018</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.1073853527084415</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.9598804153448092E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.6744234061936584E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.7358509165023917E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.7299248423768965E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.729910845199281E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.1375569445817896E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.1310264959732889E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.1310264959732889E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.3946459532787506E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.3627569017113458E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.8938378109730613E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.8938378109730613E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.8936916945193013E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.7437049706857243E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.7437049706857243E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.3794808738762731E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.3794808738762731E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.3774392649784869E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.3120312163720679E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.2664094298587733E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.0665618779436337E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.0376202979438831E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.9681045594310698E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.8088934676172937E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.751520227353144E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.7027458766756111E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.9772465838510421E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.9772465838510421E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.3451037694472198E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.3451037694472198E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.3173179900288022E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.3173179900288022E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.2684070124978759E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.0499878326544511E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.043621292727024E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.8847728258034389E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.7058202739320591E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.6904219400100252E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.6904039972202459E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.690401228002981E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.6079770110612351E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.570212049591554E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.4713554401332952E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.4713554401332952E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.4489403293182149E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.4489403293182149E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.4057318868719011E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.3220648285641621E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.320862181214528E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.2837217261256291E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.2806537702839611E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.083485941846137E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.083485941846137E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.0824022631085608E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.0824022631085608E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.0813279837191251E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.0639700954814381E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.0565912889719078E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.0110985356338571E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.986859543486803E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.986859543486803E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.9823821752485801E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.8846254379085738E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.883914423859236E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.7894718126190659E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.7855474266670852E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.779838958343136E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.779838958343136E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.7489066305096761E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.7467826192113661E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.7330220042354488E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.7144217529866852E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.701855236275486E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.6992583584997958E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.6482245112962191E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.64661430866558E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9F44-4E88-9D91-B9D380B45E5F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="448934928"/>
+        <c:axId val="441992704"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="448934928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441992704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="441992704"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="448934928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1916,6 +2864,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2433,6 +3421,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3019,6 +4523,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Wykres 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF49F8DD-69FF-4C3F-BC78-64712F21C8D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3314,8 +4856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Y14" sqref="Y14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
